--- a/documentation/HR game.xlsx
+++ b/documentation/HR game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1642A3C-4F20-45C7-95F2-225747B6C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94F46D-9349-48FF-8479-21B721AFED62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92AEB6D6-AE1C-4871-B31E-3E0A88298897}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Название черты</t>
   </si>
@@ -232,10 +232,6 @@
 Эффективность труда +20 в течении дня за каждого избитого.</t>
   </si>
   <si>
-    <t>Диалог длится 4 часа
-Шанс суицида ЖЕНЩИНЫ на следующий (НД) после диалога 25%</t>
-  </si>
-  <si>
     <t>(НД) Шанс начать *бухать* и не выйти на работу 10%
 (НД) Шанс прекратить *бухать* и выйти на работу 50%
 (НД) Смерть если *бухает* 3 дня подряд</t>
@@ -322,6 +318,22 @@
   </si>
   <si>
     <t>Реализация</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>16-30 минут или 2 фазы</t>
+  </si>
+  <si>
+    <t>1 фазу</t>
+  </si>
+  <si>
+    <t>2 часа или 8 фаз</t>
+  </si>
+  <si>
+    <t>Диалог длится 2 часа
+Шанс суицида ЖЕНЩИНЫ на следующий (НД) после диалога 25%</t>
   </si>
 </sst>
 </file>
@@ -700,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53857CFD-AA21-441A-9E6B-39CF418D264D}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +726,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -728,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -921,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -935,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -949,7 +961,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -963,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -977,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -991,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97542477-00E5-4310-8FDC-047661D3E228}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,91 +1015,104 @@
     <col min="2" max="2" width="30.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/HR game.xlsx
+++ b/documentation/HR game.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fae82b85917d8db/Документы/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{ED8A1A32-9FDA-4CB3-B1AF-AEB4EEBF1B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A3105C-0C56-4AEB-B0A5-7A22FC7F83DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{92AEB6D6-AE1C-4871-B31E-3E0A88298897}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92AEB6D6-AE1C-4871-B31E-3E0A88298897}"/>
   </bookViews>
   <sheets>
     <sheet name="Черты персонажей" sheetId="1" r:id="rId1"/>
-    <sheet name="Вес и возраст" sheetId="2" r:id="rId2"/>
+    <sheet name="Глобальные события" sheetId="4" r:id="rId2"/>
+    <sheet name="Вес и возраст" sheetId="2" r:id="rId3"/>
+    <sheet name="Образование" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>Название черты</t>
   </si>
@@ -118,15 +120,12 @@
     <t>Изм. Энергии</t>
   </si>
   <si>
+    <t>40-60</t>
+  </si>
+  <si>
     <t>60-80</t>
   </si>
   <si>
-    <t>80-120</t>
-  </si>
-  <si>
-    <t>120-180</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -136,14 +135,212 @@
     <t>Формула: вес/рост^2</t>
   </si>
   <si>
-    <t>20-30</t>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>35-50</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Изм. Эффективности</t>
+  </si>
+  <si>
+    <t>Курсы в интернете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неоконченное среднее </t>
+  </si>
+  <si>
+    <t>Среднее общее</t>
+  </si>
+  <si>
+    <t>Бакалавриат</t>
+  </si>
+  <si>
+    <t>Магистратура</t>
+  </si>
+  <si>
+    <t>Аспирантура</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>20-40</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>от 10 до 15</t>
+  </si>
+  <si>
+    <t>Шанс создать пару при диалоге х1.5
+(НД) Шанс порвать анус огромным членом человеком с которым в паре у мужчин - 10% (смерть партнера).
+(НД) Шанс 10%, что его любимая баскетбольная команда проиграла и эффективность в течении дня -50 (10% покончить с собой)</t>
+  </si>
+  <si>
+    <t>Эффективность труда +100
+Энергия +1
+(НД) Шанс покончить с собой 25%</t>
+  </si>
+  <si>
+    <t>Личная эффективность труда за каждую женщину в коллективе -5
+(Э) -1 энергия за каждые 3 женщины в коллективе
+(Д) Шанс конфликта при (Д) с женщиной 25%</t>
+  </si>
+  <si>
+    <t>Личная эффективность труда за каждого мужчину в коллективе -5
+(Э) -1 энергия за каждых 3 мужчин в коллективе
+(Д) Шанс конфликта при (Д) с мужчиной 25%</t>
+  </si>
+  <si>
+    <t>Если попадает в пару то вместо этого поканчивает жизнь самоубийством в следующий (НД)</t>
+  </si>
+  <si>
+    <t>Может создать пару с несколькими людьми. Шанс создать пару при диалоге х1.5</t>
+  </si>
+  <si>
+    <t>При разговоре с арабом возникает конфликт. 
+Не выходит на работу по субботам (шабат).</t>
+  </si>
+  <si>
+    <t>При разговоре с евреем возникает конфликт.
+Если арабов 3 и больше, то с шансом 25% они устраивают чтение Корана в течении дня и пропускают два рабочих часа.</t>
+  </si>
+  <si>
+    <t>Шанс избить оппонента в конфликте + 25%
+Шанс что конфликт закончится ничем -25%
+Шанс начать конфликт +25%
+Эффективность труда +20 в течении дня за каждого избитого.</t>
+  </si>
+  <si>
+    <t>Шанс избить оппонента в конфликте + 25%
+(МОД) Шанс что конфликт закончится ничем -25%
+(Д) Шанс начать конфликт 25%
+Эффективность труда +20 в течении дня за каждого избитого.</t>
+  </si>
+  <si>
+    <t>(НД) Шанс начать *бухать* и не выйти на работу 10%
+(НД) Шанс прекратить *бухать* и выйти на работу 50%
+(НД) Смерть если *бухает* 3 дня подряд</t>
+  </si>
+  <si>
+    <t>Может вести диалог сам с собой. (шанс 50%)
+Шанс конфликта при разговоре с реальным человеком или собой +25%</t>
+  </si>
+  <si>
+    <t>Общая эффективность труда -10.
+После диалога эффективность труда собеседника -10 до конца дня.
+(Д) Шанс конфликта +25%.</t>
+  </si>
+  <si>
+    <t>Личная эффективность труда за каждого мужчину в коллективе -5
+(Э) -1 энергия в день за каждых 3 мужчин в коллективе
+(Д) Шанс конфликта при (Д) с мужчиной 25%</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Условия появления</t>
+  </si>
+  <si>
+    <t>Миграционная проверка</t>
+  </si>
+  <si>
+    <t>Призраки</t>
+  </si>
+  <si>
+    <t>Джихад</t>
+  </si>
+  <si>
+    <t>ЛГБТК(А)+ митинг</t>
+  </si>
+  <si>
+    <t>Протесты профсоюза</t>
+  </si>
+  <si>
+    <t>Взрывает людей, которые разговаривают в коридоре.</t>
+  </si>
+  <si>
+    <t>Депортирует 50% Арабов и Азиатов. (эквивалентно увольнению)</t>
+  </si>
+  <si>
+    <t>Каждые 15 минут стреляют из дробовика в случайного черного.</t>
+  </si>
+  <si>
+    <t>Весь коллектив пропускает два часа рабочего дня.</t>
+  </si>
+  <si>
+    <t>Эффективность труда всех гетеро падает на 30.</t>
+  </si>
+  <si>
+    <t>Поможет ли полиция</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>При выборе черных в коллектив на день 12 раз.</t>
+  </si>
+  <si>
+    <t>при выборе араба или азиата в коллектив на день 18 раз.</t>
+  </si>
+  <si>
+    <t>При выборе евреев в коллектив на день 10 раз.</t>
+  </si>
+  <si>
+    <t>при отсутствии членов ЛГБТК(А)+ в коллектив на день 3 раза.</t>
+  </si>
+  <si>
+    <t>При увольнении сотрудников 15 раз.</t>
+  </si>
+  <si>
+    <t>Реализация</t>
+  </si>
+  <si>
+    <t>Длительность</t>
+  </si>
+  <si>
+    <t>16-30 минут или 2 фазы</t>
+  </si>
+  <si>
+    <t>1 фазу</t>
+  </si>
+  <si>
+    <t>2 часа или 8 фаз</t>
+  </si>
+  <si>
+    <t>Диалог длится 2 часа
+Шанс суицида ЖЕНЩИНЫ на следующий (НД) после диалога 25%</t>
+  </si>
+  <si>
+    <t>В случае если диалога не было 30 минут или более и не будет в следующие 30 минут, то шанс 20% начать дополнительный диалог в следующие 30 минут.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +353,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -182,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -191,6 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,21 +710,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53857CFD-AA21-441A-9E6B-39CF418D264D}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,149 +739,260 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -684,58 +1002,373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97542477-00E5-4310-8FDC-047661D3E228}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6C2DAF-A791-483B-A75F-89796D56BD02}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>-2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B229ABC9-ACCE-41A1-AB01-E21A6939D62C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>-30</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>-10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/HR game.xlsx
+++ b/documentation/HR game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A3105C-0C56-4AEB-B0A5-7A22FC7F83DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB45E1E-5FE3-4015-8F6C-DEF4B50AD100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92AEB6D6-AE1C-4871-B31E-3E0A88298897}"/>
   </bookViews>
@@ -333,7 +333,7 @@
 Шанс суицида ЖЕНЩИНЫ на следующий (НД) после диалога 25%</t>
   </si>
   <si>
-    <t>В случае если диалога не было 30 минут или более и не будет в следующие 30 минут, то шанс 20% начать дополнительный диалог в следующие 30 минут.</t>
+    <t xml:space="preserve">Может начать диалог в 12:30 - 13:00 и 15:00 - 15:30. Шанс 50%. </t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
